--- a/codes/test_shell_output/testNegCat_New.xlsx
+++ b/codes/test_shell_output/testNegCat_New.xlsx
@@ -402,17 +402,17 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1">
-        <v>66.66666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1">
-        <v>66.66666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -422,17 +422,17 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1">
-        <v>33.33333333333334</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1">
-        <v>33.33333333333334</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testNegCat_New.xlsx
+++ b/codes/test_shell_output/testNegCat_New.xlsx
@@ -402,17 +402,17 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -422,17 +422,17 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testNegCat_New.xlsx
+++ b/codes/test_shell_output/testNegCat_New.xlsx
@@ -402,17 +402,17 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1">
-        <v>60</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1">
-        <v>60</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -422,17 +422,17 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1">
-        <v>40</v>
+        <v>85.71428571428571</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1">
-        <v>40</v>
+        <v>85.71428571428571</v>
       </c>
     </row>
   </sheetData>
